--- a/data/In-source frags.xlsx
+++ b/data/In-source frags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFAS project\Data\Semi-Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDCB77-6501-4E53-8D74-69918BEF6EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75E2A3-DEAF-41BE-8B98-D826DDC5683E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{93CE11ED-6138-46B1-A1C9-8FDCBC3DB9E3}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="260">
   <si>
     <t>Perfluoro sulfonic acid</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>loss of HPO3</t>
+  </si>
+  <si>
+    <t>HFPO-DA-br</t>
+  </si>
+  <si>
+    <t>FC(F)(OC(F)(F)C(F)(F)C(F)(F)F)C(F)(F)C(=O)O</t>
   </si>
 </sst>
 </file>
@@ -1348,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43391FFB-7A17-4CB0-B87B-2E502EBD0743}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2065,194 +2071,186 @@
         <v>284.97805</v>
       </c>
       <c r="H26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" t="s">
         <v>204</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="9" t="s">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="3">
-        <v>511.96185000000003</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s">
-        <v>205</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="3">
-        <v>569.96732999999995</v>
+        <v>511.96185000000003</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="5">
-        <v>570.97460762200001</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="33">
-        <v>7.39</v>
+        <v>93</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C29" s="31"/>
-      <c r="D29" s="17">
-        <v>616.00919999999996</v>
+      <c r="D29" s="3">
+        <v>569.96732999999995</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" t="s">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K29" s="5">
-        <v>556.99534306700002</v>
+        <v>570.97460762200001</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="33">
+        <v>7.39</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="17">
+        <v>616.00919999999996</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="5">
+        <v>556.99534306700002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="3">
-        <v>376.96886999999998</v>
-      </c>
-      <c r="E30" s="21">
-        <v>250.97568999999999</v>
-      </c>
-      <c r="G30" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="5">
-        <v>377.97614650000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="3">
-        <v>212.97919999999999</v>
-      </c>
-      <c r="E31" s="20">
-        <f>D31-44</f>
-        <v>168.97919999999999</v>
+        <v>376.96886999999998</v>
+      </c>
+      <c r="E31" s="21">
+        <v>250.97568999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K31" s="5">
-        <v>213.98647641299999</v>
+        <v>377.97614650000003</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="7" t="s">
-        <v>79</v>
+      <c r="A32" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="3">
+        <v>212.97919999999999</v>
+      </c>
+      <c r="E32" s="20">
+        <f>D32-44</f>
+        <v>168.97919999999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="5">
+        <v>213.98647641299999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="3">
         <v>298.94299000000001</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>210</v>
-      </c>
-      <c r="I32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="5">
-        <v>299.95026853299998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="3"/>
-      <c r="H33" t="s">
-        <v>211</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
@@ -2260,44 +2258,44 @@
       <c r="J33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <v>299.95026853299998</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="3">
-        <v>512.96004000000005</v>
-      </c>
-      <c r="E34" s="20">
-        <f>D34-44</f>
-        <v>468.96004000000005</v>
-      </c>
+      <c r="A34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="3"/>
       <c r="H34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34" s="5">
-        <v>513.96731436899995</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="3">
+        <v>512.96004000000005</v>
+      </c>
+      <c r="E35" s="20">
+        <f>D35-44</f>
+        <v>468.96004000000005</v>
+      </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I35" t="s">
         <v>4</v>
@@ -2305,95 +2303,97 @@
       <c r="J35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="6"/>
+      <c r="K35" s="5">
+        <v>513.96731436899995</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3">
-        <v>612.95365000000004</v>
-      </c>
-      <c r="E36" s="20">
-        <f>D36-44</f>
-        <v>568.95365000000004</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="3"/>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I36" t="s">
         <v>4</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="5">
-        <v>613.96092702099997</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7" t="s">
-        <v>67</v>
+      <c r="A37" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3">
-        <v>598.92382999999995</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>78</v>
+        <v>612.95365000000004</v>
+      </c>
+      <c r="E37" s="20">
+        <f>D37-44</f>
+        <v>568.95365000000004</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="K37" s="5">
+        <v>613.96092702099997</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="8" t="s">
-        <v>63</v>
+      <c r="A38" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3">
-        <v>362.96962000000002</v>
-      </c>
-      <c r="E38" s="20">
-        <f>D38-44</f>
-        <v>318.96962000000002</v>
+        <v>598.92382999999995</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3">
+        <v>362.96962000000002</v>
+      </c>
+      <c r="E39" s="20">
+        <f>D39-44</f>
+        <v>318.96962000000002</v>
+      </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I39" t="s">
         <v>4</v>
@@ -2403,48 +2403,42 @@
       </c>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" s="27" customFormat="1">
-      <c r="A40" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="25">
-        <v>448.93340999999998</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="29"/>
+    <row r="40" spans="1:11">
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="20"/>
+      <c r="H40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" s="27" customFormat="1">
       <c r="A41" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="25">
         <v>448.93340999999998</v>
       </c>
-      <c r="E41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>243</v>
+      </c>
       <c r="H41" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I41" s="27" t="s">
         <v>0</v>
@@ -2452,139 +2446,143 @@
       <c r="J41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29"/>
+    </row>
+    <row r="42" spans="1:11" s="27" customFormat="1">
+      <c r="A42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="25">
+        <v>448.93340999999998</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="H42" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="30">
         <v>449.940674</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3">
-        <v>312.97280999999998</v>
-      </c>
-      <c r="E42" s="20">
-        <f>D42-44</f>
-        <v>268.97280999999998</v>
-      </c>
-      <c r="H42" t="s">
-        <v>220</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3">
-        <v>812.94087999999999</v>
-      </c>
-      <c r="E43" s="21">
-        <v>768.95153000000005</v>
+        <v>312.97280999999998</v>
+      </c>
+      <c r="E43" s="20">
+        <f>D43-44</f>
+        <v>268.97280999999998</v>
       </c>
       <c r="H43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="5">
-        <v>813.94815232500002</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="7" t="s">
-        <v>48</v>
+      <c r="A44" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="3">
+        <v>812.94087999999999</v>
+      </c>
+      <c r="E44" s="21">
+        <v>768.95153000000005</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="5">
+        <v>813.94815232500002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3">
         <v>398.9366</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E45" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>222</v>
       </c>
-      <c r="I44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="4"/>
       <c r="I45" t="s">
         <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="3">
-        <v>462.96323000000001</v>
-      </c>
-      <c r="E46" s="20">
-        <f>D46-44</f>
-        <v>418.96323000000001</v>
-      </c>
-      <c r="H46" t="s">
-        <v>223</v>
-      </c>
       <c r="I46" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" s="5">
-        <v>463.970508043</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3">
+        <v>462.96323000000001</v>
+      </c>
+      <c r="E47" s="20">
+        <f>D47-44</f>
+        <v>418.96323000000001</v>
+      </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I47" t="s">
         <v>4</v>
@@ -2592,44 +2590,33 @@
       <c r="J47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" s="27" customFormat="1">
-      <c r="A48" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="25">
-        <v>548.92701999999997</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="28">
-        <v>549.93430016299999</v>
-      </c>
+      <c r="K47" s="5">
+        <v>463.970508043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="20"/>
+      <c r="H48" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" s="27" customFormat="1">
       <c r="A49" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="25">
@@ -2638,50 +2625,61 @@
       <c r="E49" s="26" t="s">
         <v>159</v>
       </c>
+      <c r="G49" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>225</v>
+      </c>
       <c r="I49" s="27" t="s">
         <v>0</v>
       </c>
       <c r="J49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3">
-        <v>412.96643</v>
-      </c>
-      <c r="E50" s="20">
-        <f>D50-44</f>
-        <v>368.96643</v>
-      </c>
-      <c r="H50" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="5">
-        <v>413.97370171699998</v>
-      </c>
+      <c r="K49" s="28">
+        <v>549.93430016299999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="27" customFormat="1">
+      <c r="A50" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="25">
+        <v>548.92701999999997</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3">
+        <v>412.96643</v>
+      </c>
+      <c r="E51" s="20">
+        <f>D51-44</f>
+        <v>368.96643</v>
+      </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I51" t="s">
         <v>4</v>
@@ -2689,228 +2687,228 @@
       <c r="J51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" s="5">
+        <v>413.97370171699998</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3">
-        <v>912.93448999999998</v>
-      </c>
-      <c r="E52" s="21">
-        <v>868.94590000000005</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="23"/>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I52" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="5">
-        <v>913.94176497700005</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="7" t="s">
-        <v>27</v>
+      <c r="A53" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3">
-        <v>498.93022000000002</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>78</v>
+        <v>912.93448999999998</v>
+      </c>
+      <c r="E53" s="21">
+        <v>868.94590000000005</v>
       </c>
       <c r="H53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I53" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="K53" s="5">
+        <v>913.94176497700005</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>26</v>
+      <c r="A54" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="3">
         <v>498.93022000000002</v>
       </c>
+      <c r="E54" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>229</v>
+      </c>
       <c r="I54" t="s">
         <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="3">
+        <v>498.93022000000002</v>
+      </c>
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3">
         <v>262.97600999999997</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E56" s="21">
         <v>218.98576</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>230</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K56" s="5">
         <v>263.983282739</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="27" customFormat="1">
-      <c r="A56" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="25">
-        <v>762.94407000000001</v>
-      </c>
-      <c r="E56" s="26">
-        <f>D56-44</f>
-        <v>718.94407000000001</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="28">
-        <v>763.95134599899995</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="27" customFormat="1">
       <c r="A57" s="24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="25">
-        <v>348.93979999999999</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>159</v>
+        <v>762.94407000000001</v>
+      </c>
+      <c r="E57" s="26">
+        <f>D57-44</f>
+        <v>718.94407000000001</v>
       </c>
       <c r="G57" s="27" t="s">
         <v>243</v>
       </c>
       <c r="H57" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="28">
+        <v>763.95134599899995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="27" customFormat="1">
+      <c r="A58" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="25">
+        <v>348.93979999999999</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I58" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J58" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K58" s="28">
         <v>349.947074859</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3">
-        <v>712.94726000000003</v>
-      </c>
-      <c r="E58" s="20">
-        <f>D58-44</f>
-        <v>668.94726000000003</v>
-      </c>
-      <c r="H58" t="s">
-        <v>233</v>
-      </c>
-      <c r="I58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="3">
-        <v>662.95046000000002</v>
+        <v>712.94726000000003</v>
       </c>
       <c r="E59" s="20">
         <f>D59-44</f>
-        <v>618.95046000000002</v>
+        <v>668.94726000000003</v>
       </c>
       <c r="H59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s">
         <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="5">
-        <v>663.95773334700004</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3">
+        <v>662.95046000000002</v>
+      </c>
+      <c r="E60" s="20">
+        <f>D60-44</f>
+        <v>618.95046000000002</v>
+      </c>
       <c r="H60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I60" t="s">
         <v>4</v>
@@ -2918,42 +2916,45 @@
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5">
+        <v>663.95773334700004</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3">
-        <v>562.95684000000006</v>
-      </c>
-      <c r="E61" s="20">
-        <f>D61-44</f>
-        <v>518.95684000000006</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="23"/>
       <c r="H61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I61" t="s">
         <v>4</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" s="5">
-        <v>563.96412069500002</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3">
+        <v>562.95684000000006</v>
+      </c>
+      <c r="E62" s="20">
+        <f>D62-44</f>
+        <v>518.95684000000006</v>
+      </c>
+      <c r="H62" t="s">
+        <v>236</v>
+      </c>
       <c r="I62" t="s">
         <v>4</v>
       </c>
@@ -2964,44 +2965,60 @@
         <v>563.96412069500002</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="27" customFormat="1">
-      <c r="A63" s="24" t="s">
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="23"/>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="5">
+        <v>563.96412069500002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="27" customFormat="1">
+      <c r="A64" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="25">
+      <c r="C64" s="10"/>
+      <c r="D64" s="25">
         <v>648.92064000000005</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E64" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="H63" s="27" t="s">
+      <c r="H64" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="I63" s="27" t="s">
+      <c r="I64" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="30">
+      <c r="J64" s="25"/>
+      <c r="K64" s="30">
         <v>648.92065400000001</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="27" customFormat="1">
-      <c r="A65" s="24" t="s">
+    <row r="66" spans="1:11" s="27" customFormat="1">
+      <c r="A66" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="E65" s="26"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="E66" s="26"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
